--- a/2020/January/All Details/02.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/02.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\01.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\02.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E23C4-E82D-49C5-B732-16D5CEA586AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B111E-4AB5-4DB8-B3F9-05685E59A97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -142,7 +142,10 @@
     <t xml:space="preserve">Hand </t>
   </si>
   <si>
-    <t>Date: 01.01.2020</t>
+    <t>02.01.2020</t>
+  </si>
+  <si>
+    <t>Date: 02.01.2020</t>
   </si>
 </sst>
 </file>
@@ -1439,45 +1442,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1500,6 +1464,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1974,7 +1977,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1996,21 +1999,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="60"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="B4" s="61" t="s">
@@ -2079,12 +2082,18 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="60"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="64">
+        <v>438000</v>
+      </c>
+      <c r="D8" s="90">
+        <v>440000</v>
+      </c>
       <c r="E8" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="2"/>
@@ -2097,7 +2106,7 @@
       <c r="D9" s="64"/>
       <c r="E9" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="2"/>
@@ -2110,7 +2119,7 @@
       <c r="D10" s="68"/>
       <c r="E10" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="2"/>
@@ -2123,7 +2132,7 @@
       <c r="D11" s="64"/>
       <c r="E11" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="2"/>
@@ -2136,7 +2145,7 @@
       <c r="D12" s="64"/>
       <c r="E12" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="69"/>
@@ -2149,7 +2158,7 @@
       <c r="D13" s="64"/>
       <c r="E13" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="2"/>
@@ -2162,7 +2171,7 @@
       <c r="D14" s="64"/>
       <c r="E14" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="2"/>
@@ -2175,7 +2184,7 @@
       <c r="D15" s="64"/>
       <c r="E15" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="2"/>
@@ -2189,7 +2198,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="58"/>
@@ -2202,7 +2211,7 @@
       <c r="D17" s="64"/>
       <c r="E17" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="17"/>
@@ -2215,7 +2224,7 @@
       <c r="D18" s="64"/>
       <c r="E18" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="69"/>
@@ -2228,7 +2237,7 @@
       <c r="D19" s="64"/>
       <c r="E19" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="69"/>
@@ -2241,7 +2250,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="69"/>
@@ -2254,7 +2263,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="98">
         <f>E20+C21-D21</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="2"/>
@@ -2267,7 +2276,7 @@
       <c r="D22" s="64"/>
       <c r="E22" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="2"/>
@@ -2280,7 +2289,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="98">
         <f>E22+C23-D23</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="2"/>
@@ -2293,7 +2302,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="2"/>
@@ -2306,7 +2315,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="2"/>
@@ -2319,7 +2328,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="2"/>
@@ -2332,7 +2341,7 @@
       <c r="D27" s="64"/>
       <c r="E27" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="2"/>
@@ -2345,7 +2354,7 @@
       <c r="D28" s="64"/>
       <c r="E28" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="2"/>
@@ -2358,7 +2367,7 @@
       <c r="D29" s="64"/>
       <c r="E29" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="2"/>
@@ -2371,7 +2380,7 @@
       <c r="D30" s="64"/>
       <c r="E30" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="2"/>
@@ -2384,7 +2393,7 @@
       <c r="D31" s="64"/>
       <c r="E31" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F31" s="106" t="s">
         <v>33</v>
@@ -2399,7 +2408,7 @@
       <c r="D32" s="64"/>
       <c r="E32" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="2"/>
@@ -2412,7 +2421,7 @@
       <c r="D33" s="68"/>
       <c r="E33" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="2"/>
@@ -2425,7 +2434,7 @@
       <c r="D34" s="64"/>
       <c r="E34" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F34" s="56"/>
       <c r="G34" s="2"/>
@@ -2438,7 +2447,7 @@
       <c r="D35" s="64"/>
       <c r="E35" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="2"/>
@@ -2451,7 +2460,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="98">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="56"/>
       <c r="G36" s="2"/>
@@ -2464,7 +2473,7 @@
       <c r="D37" s="64"/>
       <c r="E37" s="97">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="2"/>
@@ -2477,7 +2486,7 @@
       <c r="D38" s="64"/>
       <c r="E38" s="97">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="2"/>
@@ -2490,7 +2499,7 @@
       <c r="D39" s="64"/>
       <c r="E39" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="2"/>
@@ -2503,7 +2512,7 @@
       <c r="D40" s="64"/>
       <c r="E40" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="2"/>
@@ -2516,7 +2525,7 @@
       <c r="D41" s="64"/>
       <c r="E41" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="2"/>
@@ -2529,7 +2538,7 @@
       <c r="D42" s="64"/>
       <c r="E42" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="56"/>
       <c r="G42" s="2"/>
@@ -2542,7 +2551,7 @@
       <c r="D43" s="64"/>
       <c r="E43" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="56"/>
       <c r="G43" s="2"/>
@@ -2555,7 +2564,7 @@
       <c r="D44" s="64"/>
       <c r="E44" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="56"/>
       <c r="G44" s="2"/>
@@ -2568,7 +2577,7 @@
       <c r="D45" s="64"/>
       <c r="E45" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F45" s="56"/>
       <c r="G45" s="2"/>
@@ -2581,7 +2590,7 @@
       <c r="D46" s="64"/>
       <c r="E46" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F46" s="56"/>
       <c r="G46" s="2"/>
@@ -2594,7 +2603,7 @@
       <c r="D47" s="64"/>
       <c r="E47" s="97">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="56"/>
       <c r="G47" s="2"/>
@@ -2607,7 +2616,7 @@
       <c r="D48" s="64"/>
       <c r="E48" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="56"/>
       <c r="G48" s="2"/>
@@ -2619,7 +2628,7 @@
       <c r="D49" s="64"/>
       <c r="E49" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="56"/>
       <c r="G49" s="2"/>
@@ -2631,7 +2640,7 @@
       <c r="D50" s="64"/>
       <c r="E50" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="2"/>
@@ -2643,7 +2652,7 @@
       <c r="D51" s="64"/>
       <c r="E51" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="56"/>
       <c r="G51" s="2"/>
@@ -2655,7 +2664,7 @@
       <c r="D52" s="64"/>
       <c r="E52" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="56"/>
       <c r="G52" s="2"/>
@@ -2667,7 +2676,7 @@
       <c r="D53" s="64"/>
       <c r="E53" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F53" s="56"/>
       <c r="G53" s="2"/>
@@ -2679,7 +2688,7 @@
       <c r="D54" s="64"/>
       <c r="E54" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F54" s="56"/>
       <c r="G54" s="2"/>
@@ -2691,7 +2700,7 @@
       <c r="D55" s="64"/>
       <c r="E55" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F55" s="56"/>
       <c r="G55" s="2"/>
@@ -2702,7 +2711,7 @@
       <c r="D56" s="64"/>
       <c r="E56" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="2"/>
@@ -2713,7 +2722,7 @@
       <c r="D57" s="64"/>
       <c r="E57" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F57" s="56"/>
       <c r="G57" s="2"/>
@@ -2724,7 +2733,7 @@
       <c r="D58" s="64"/>
       <c r="E58" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="56"/>
       <c r="G58" s="2"/>
@@ -2735,7 +2744,7 @@
       <c r="D59" s="64"/>
       <c r="E59" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F59" s="56"/>
       <c r="G59" s="2"/>
@@ -2746,7 +2755,7 @@
       <c r="D60" s="64"/>
       <c r="E60" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F60" s="56"/>
       <c r="G60" s="2"/>
@@ -2757,7 +2766,7 @@
       <c r="D61" s="64"/>
       <c r="E61" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="56"/>
       <c r="G61" s="2"/>
@@ -2768,7 +2777,7 @@
       <c r="D62" s="64"/>
       <c r="E62" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="56"/>
       <c r="G62" s="2"/>
@@ -2779,7 +2788,7 @@
       <c r="D63" s="64"/>
       <c r="E63" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F63" s="56"/>
       <c r="G63" s="2"/>
@@ -2790,7 +2799,7 @@
       <c r="D64" s="64"/>
       <c r="E64" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F64" s="56"/>
       <c r="G64" s="2"/>
@@ -2801,7 +2810,7 @@
       <c r="D65" s="64"/>
       <c r="E65" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F65" s="56"/>
       <c r="G65" s="2"/>
@@ -2812,7 +2821,7 @@
       <c r="D66" s="64"/>
       <c r="E66" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F66" s="56"/>
       <c r="G66" s="2"/>
@@ -2823,7 +2832,7 @@
       <c r="D67" s="64"/>
       <c r="E67" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F67" s="56"/>
       <c r="G67" s="2"/>
@@ -2834,7 +2843,7 @@
       <c r="D68" s="64"/>
       <c r="E68" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="2"/>
@@ -2845,7 +2854,7 @@
       <c r="D69" s="64"/>
       <c r="E69" s="65">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="2"/>
@@ -2856,7 +2865,7 @@
       <c r="D70" s="64"/>
       <c r="E70" s="65">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="2"/>
@@ -2867,7 +2876,7 @@
       <c r="D71" s="64"/>
       <c r="E71" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F71" s="56"/>
       <c r="G71" s="2"/>
@@ -2878,7 +2887,7 @@
       <c r="D72" s="64"/>
       <c r="E72" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="2"/>
@@ -2889,7 +2898,7 @@
       <c r="D73" s="64"/>
       <c r="E73" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F73" s="56"/>
       <c r="G73" s="2"/>
@@ -2900,7 +2909,7 @@
       <c r="D74" s="64"/>
       <c r="E74" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F74" s="56"/>
       <c r="G74" s="2"/>
@@ -2911,7 +2920,7 @@
       <c r="D75" s="64"/>
       <c r="E75" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="2"/>
@@ -2922,7 +2931,7 @@
       <c r="D76" s="64"/>
       <c r="E76" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="56"/>
       <c r="G76" s="2"/>
@@ -2933,7 +2942,7 @@
       <c r="D77" s="64"/>
       <c r="E77" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F77" s="56"/>
       <c r="G77" s="2"/>
@@ -2944,7 +2953,7 @@
       <c r="D78" s="64"/>
       <c r="E78" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F78" s="56"/>
       <c r="G78" s="2"/>
@@ -2955,7 +2964,7 @@
       <c r="D79" s="64"/>
       <c r="E79" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F79" s="56"/>
       <c r="G79" s="2"/>
@@ -2966,7 +2975,7 @@
       <c r="D80" s="64"/>
       <c r="E80" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F80" s="56"/>
       <c r="G80" s="2"/>
@@ -2977,7 +2986,7 @@
       <c r="D81" s="64"/>
       <c r="E81" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F81" s="56"/>
       <c r="G81" s="2"/>
@@ -2988,7 +2997,7 @@
       <c r="D82" s="64"/>
       <c r="E82" s="65">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F82" s="56"/>
       <c r="G82" s="2"/>
@@ -2997,15 +3006,15 @@
       <c r="B83" s="72"/>
       <c r="C83" s="67">
         <f>SUM(C5:C72)</f>
-        <v>444000</v>
+        <v>882000</v>
       </c>
       <c r="D83" s="67">
         <f>SUM(D5:D77)</f>
-        <v>440000</v>
+        <v>880000</v>
       </c>
       <c r="E83" s="73">
         <f>E71+C83-D83</f>
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="57"/>
       <c r="G83" s="2"/>
@@ -3034,7 +3043,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3058,24 +3067,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A2" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
+      <c r="A2" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="5"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
@@ -3159,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="109">
-        <v>5800755.7899999982</v>
+        <v>5598035.4849999994</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="101"/>
@@ -3199,14 +3208,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>6782.2350000000006</v>
+        <v>11978.93</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="127" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="109">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="101"/>
@@ -3247,14 +3256,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7006782.2350000003</v>
+        <v>7011978.9299999997</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="105" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="110">
-        <v>438000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="101"/>
@@ -3301,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1412980</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="101"/>
@@ -3341,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>1280</v>
+        <v>1620</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="127" t="s">
@@ -3393,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="109">
-        <v>-650233.55499999784</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="101"/>
@@ -3434,7 +3443,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>5502.2350000000006</v>
+        <v>10358.93</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="127"/>
@@ -3560,7 +3569,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7005502.2350000003</v>
+        <v>7010358.9299999997</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3568,12 +3577,12 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7005502.2350000003</v>
+        <v>5600035.4849999994</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="90">
         <f>B13-E13</f>
-        <v>0</v>
+        <v>1410323.4450000003</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -3648,13 +3657,13 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="150"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3874,15 +3883,15 @@
       <c r="AK19" s="8"/>
     </row>
     <row r="20" spans="1:37" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="147">
+      <c r="B20" s="134">
         <v>14000</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
       <c r="G20" s="103"/>
       <c r="H20" s="104"/>
       <c r="I20" s="53"/>
@@ -3916,11 +3925,11 @@
       <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
       <c r="G21" s="49"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>

--- a/2020/January/All Details/02.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/02.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\02.01.2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B111E-4AB5-4DB8-B3F9-05685E59A97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="December" sheetId="7" r:id="rId1"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1532,12 +1526,12 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Comma 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Comma 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 4" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 2" xfId="28"/>
+    <cellStyle name="Comma 2 2" xfId="29"/>
+    <cellStyle name="Comma 2 3" xfId="30"/>
+    <cellStyle name="Comma 3" xfId="31"/>
+    <cellStyle name="Comma 4" xfId="32"/>
+    <cellStyle name="Comma 5" xfId="33"/>
     <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="35" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="36" builtinId="16" customBuiltin="1"/>
@@ -1548,15 +1542,15 @@
     <cellStyle name="Linked Cell" xfId="41" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="42" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 16" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 18" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Note 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 16" xfId="43"/>
+    <cellStyle name="Normal 18" xfId="44"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 3" xfId="46"/>
+    <cellStyle name="Normal 4" xfId="47"/>
+    <cellStyle name="Note 2" xfId="48"/>
     <cellStyle name="Output" xfId="49" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Percent 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 2" xfId="50"/>
+    <cellStyle name="Percent 3" xfId="51"/>
     <cellStyle name="Title" xfId="52" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="53" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="54" builtinId="11" customBuiltin="1"/>
@@ -1594,7 +1588,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1600,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1629,14 +1623,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1696,7 +1690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,27 +1722,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,24 +1756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1973,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3036,14 +2994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3263,7 +3221,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="110">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="101"/>
@@ -3310,7 +3268,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>1420530</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="101"/>
@@ -3402,7 +3360,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="109">
-        <v>0</v>
+        <v>-210206.5549999997</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="101"/>
@@ -3577,12 +3535,12 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>5600035.4849999994</v>
+        <v>7010358.9299999997</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="90">
         <f>B13-E13</f>
-        <v>1410323.4450000003</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -3709,7 +3667,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="114">
-        <v>98760</v>
+        <v>99210</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="103"/>
@@ -3756,7 +3714,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="115">
-        <v>185430</v>
+        <v>184000</v>
       </c>
       <c r="G17" s="103"/>
       <c r="H17" s="102"/>
